--- a/modified/excel_prediction.xlsx
+++ b/modified/excel_prediction.xlsx
@@ -327,11 +327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638893144"/>
-        <c:axId val="638894712"/>
+        <c:axId val="459711336"/>
+        <c:axId val="459705064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="638893144"/>
+        <c:axId val="459711336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638894712"/>
+        <c:crossAx val="459705064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -381,7 +381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="638894712"/>
+        <c:axId val="459705064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638893144"/>
+        <c:crossAx val="459711336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1088,6 +1088,75 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="5467350"/>
+          <a:ext cx="6391275" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Excel's prediction based on the function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> generated from the regression analysis in data.xlxs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1357,7 +1426,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
